--- a/db/Base_plain.xlsx
+++ b/db/Base_plain.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="138">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -367,313 +367,133 @@
     <t>graphicType</t>
   </si>
   <si>
-    <t>Столбец1</t>
-  </si>
-  <si>
     <t>imageUrl</t>
   </si>
   <si>
+    <t>имя файла</t>
+  </si>
+  <si>
     <t>ДПУ-М</t>
   </si>
   <si>
-    <t>дпу-м.png</t>
-  </si>
-  <si>
     <t>АМН</t>
   </si>
   <si>
-    <t>амн.png</t>
-  </si>
-  <si>
     <t>КПУ-1Н, канальный</t>
   </si>
   <si>
-    <t>кпу-1н-канальный-прямоугольный.png</t>
-  </si>
-  <si>
     <t>КПУ-1Н, стеновой</t>
   </si>
   <si>
-    <t>кпу-1н-стеновой.png</t>
-  </si>
-  <si>
-    <t>кпу-1н-канальный-круглый.png</t>
-  </si>
-  <si>
-    <t>кпу-1н-ниппельный-круглый.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н, канальный, дымовой</t>
   </si>
   <si>
-    <t>кпу-2н-канальный-дымовой.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н, канальный, нормально открытый</t>
   </si>
   <si>
-    <t>кпу-2н-канальный-нормально_открытый.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н, канальный, нормально закрытый</t>
   </si>
   <si>
-    <t>кпу-2н-канальный-нормально_закрытый.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н, ниппельный, дымовой</t>
   </si>
   <si>
-    <t>кпу-2н-ниппельный-дымовой.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н, ниппельный, нормально открытый</t>
   </si>
   <si>
-    <t>кпу-2н-ниппельный-нормально_открытый.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н, ниппельный, нормально закрытый</t>
   </si>
   <si>
-    <t>кпу-2н-ниппельный-нормально_закрытый.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н-ВД, канальный, нормально открытый</t>
   </si>
   <si>
-    <t>кпу-2н-вд-канальный-нормально_открытый.png</t>
-  </si>
-  <si>
     <t>КПУ-2Н-ВД, канальный, нормально закрытый</t>
   </si>
   <si>
-    <t>кпу-2н-вд-канальный-нормально_закрытый.png</t>
-  </si>
-  <si>
     <t>КПУ-ДД, канальный</t>
   </si>
   <si>
-    <t>кпу-дд-канальный-прямоугольный.png</t>
-  </si>
-  <si>
     <t>КПУ-ДД, стеновой</t>
   </si>
   <si>
-    <t>кпу-дд-стеновой.png</t>
-  </si>
-  <si>
-    <t>кпу-дд-канальный-круглый.png</t>
-  </si>
-  <si>
     <t>КПУ-ДД, ниппельный</t>
   </si>
   <si>
-    <t>кпу-дд-ниппельный.png</t>
-  </si>
-  <si>
     <t>ОКСИД, канальный</t>
   </si>
   <si>
-    <t>оксид-канальный.png</t>
-  </si>
-  <si>
     <t>ОКСИД, стеновой</t>
   </si>
   <si>
-    <t>оксид-стеновой.png</t>
-  </si>
-  <si>
     <t>ОКСИД, канальный, кассетный</t>
   </si>
   <si>
-    <t>оксид-кассетный.png</t>
-  </si>
-  <si>
     <t>ПРОК</t>
   </si>
   <si>
-    <t>прок-круглый.png</t>
-  </si>
-  <si>
-    <t>прок-прямоугольный.png</t>
-  </si>
-  <si>
     <t>ГТК</t>
   </si>
   <si>
-    <t>гтк-ровен.png</t>
-  </si>
-  <si>
-    <t>гтк-неватом.png</t>
-  </si>
-  <si>
     <t>ГТП</t>
   </si>
   <si>
-    <t>гтп-неватом.png</t>
-  </si>
-  <si>
     <t>Р</t>
   </si>
   <si>
-    <t>р-круглый-неватом.png</t>
-  </si>
-  <si>
-    <t>р-прямоугольный-неватом.png</t>
-  </si>
-  <si>
     <t>KVK</t>
   </si>
   <si>
-    <t>kvk-неватом.png</t>
-  </si>
-  <si>
     <t>KV</t>
   </si>
   <si>
-    <t>kv-неватом.png</t>
-  </si>
-  <si>
     <t>KVU-P</t>
   </si>
   <si>
-    <t>kvu-p.png</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
-    <t>ko-неватом.png</t>
-  </si>
-  <si>
     <t>KO типа "бабочка"</t>
   </si>
   <si>
-    <t>ko-неватом-бабочка.png</t>
-  </si>
-  <si>
     <t>KPNO</t>
   </si>
   <si>
-    <t>kpno-неватом.png</t>
-  </si>
-  <si>
     <t>TDC III</t>
   </si>
   <si>
-    <t>воздуховод-TDCIII-Воздуховод-300x500-1390-ОЦ.-0.7-т3.т3.png</t>
-  </si>
-  <si>
-    <t>заглушка-300x500-75-оц-0.7-т3.png</t>
-  </si>
-  <si>
-    <t>отвод-2-90-300x500-100-100-оц.-0.7-т3.т3.png</t>
-  </si>
-  <si>
     <t>ДП4</t>
   </si>
   <si>
-    <t>диффузор-ДП-4-450x450.png</t>
-  </si>
-  <si>
     <t>КП (КВ)</t>
   </si>
   <si>
-    <t>диффузор_КП_(КВ)-160.png</t>
-  </si>
-  <si>
     <t>VC</t>
   </si>
   <si>
-    <t>вентилятор-канальный-VC-160.png</t>
-  </si>
-  <si>
     <t>VCN</t>
   </si>
   <si>
-    <t>вентилятор-VCN-60-35-31-GH-4D-0-15-1500-380.png</t>
-  </si>
-  <si>
     <t>NWPk</t>
   </si>
   <si>
-    <t>нагреватель-NWPk-315-2.png</t>
-  </si>
-  <si>
     <t>NWP</t>
   </si>
   <si>
-    <t>нагреватель-водяной-NWP-600-350-1-L.png</t>
-  </si>
-  <si>
     <t>NEK</t>
   </si>
   <si>
-    <t>нагреватель-электрический-NEK-250-6.png</t>
-  </si>
-  <si>
     <t>NEP</t>
   </si>
   <si>
-    <t>нагреватель-электрический-NEP-500x250-30.png</t>
-  </si>
-  <si>
     <t>OWP</t>
   </si>
   <si>
-    <t>охладитель-водяной-OWP-500x250-2-L.png</t>
-  </si>
-  <si>
     <t>OFP</t>
   </si>
   <si>
-    <t>охладитель-фреоновый-OFP-400x200-3-L.png</t>
-  </si>
-  <si>
     <t>SUB</t>
   </si>
   <si>
-    <t>секция-бактерицидной-обработки-воздуха-SUB-900x500-K-8-1.png</t>
-  </si>
-  <si>
     <t>Размер воздуховода</t>
-  </si>
-  <si>
-    <t>выноска-размер-воздуховода.png</t>
-  </si>
-  <si>
-    <t>воздуховод-шн.-Ø200-1500-мм.png</t>
-  </si>
-  <si>
-    <t>крестовина-КК-У-Ø180-Ø100,-100.png</t>
-  </si>
-  <si>
-    <t>отвод-фл.-Ø160-90-град..png</t>
-  </si>
-  <si>
-    <t>переход-(Кр)-фл.-Ø160х100-400-мм.png</t>
-  </si>
-  <si>
-    <t>тройник-(Кр)-фл.-Ø160х100.png</t>
-  </si>
-  <si>
-    <t>заглушка-Ø114х4,5.png</t>
-  </si>
-  <si>
-    <t>крестовина-114х4,5.png</t>
-  </si>
-  <si>
-    <t>отвод-90-Ø114х4,5.png</t>
-  </si>
-  <si>
-    <t>переход-К165х10-114х1.png</t>
-  </si>
-  <si>
-    <t>тройник-165х4,5.png</t>
-  </si>
-  <si>
-    <t>труба-Ø165х4,5.png</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1284,10 @@
     <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1661,25 +1484,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
-      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
+      <tableStyleElement type="pageFieldValues" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1797,10 +1620,12 @@
     <tableColumn id="5" name="shape"/>
     <tableColumn id="6" name="manufacturer"/>
     <tableColumn id="7" name="graphicType"/>
-    <tableColumn id="9" name="Столбец1" dataDxfId="0">
+    <tableColumn id="8" name="imageUrl" dataDxfId="0">
       <calculatedColumnFormula>LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",G5,"-",E5,"-",C5,"-",F5,".png")," ","_"),"""",""),",",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="imageUrl"/>
+    <tableColumn id="9" name="имя файла" dataDxfId="1">
+      <calculatedColumnFormula>LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",G5,"-",E5,"-",C5,"-",F5,".png")," ","_"),"""",""),",",""))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3048,8 +2873,8 @@
   <sheetPr/>
   <dimension ref="B4:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3061,8 +2886,8 @@
     <col min="6" max="6" width="19.5185185185185" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5555555555556" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6574074074074" style="1" customWidth="1"/>
-    <col min="9" max="9" width="74.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="106.222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="74.1111111111111" style="1" customWidth="1"/>
     <col min="16376" max="16384" width="9.13888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3121,8 +2946,9 @@
         <f t="shared" ref="I5:I36" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",G5,"-",E5,"-",C5,"-",F5,".png")," ","_"),"""",""),",",""))</f>
         <v>1-арктос-диффузор-дпу-м-круглый.png</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>98</v>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ref="J5:J36" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",G5,"-",E5,"-",C5,"-",F5,".png")," ","_"),"""",""),",",""))</f>
+        <v>1-арктос-диффузор-дпу-м-круглый.png</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
@@ -3130,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
@@ -3151,8 +2977,9 @@
         <f t="shared" si="0"/>
         <v>2-арктос-решетка-амн-прямоугольный.png</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>100</v>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2-арктос-решетка-амн-прямоугольный.png</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:10">
@@ -3160,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -3181,8 +3008,9 @@
         <f t="shared" si="0"/>
         <v>3-веза-клапан_противопожарный-кпу-1н_канальный-прямоугольный.png</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>102</v>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3-веза-клапан_противопожарный-кпу-1н_канальный-прямоугольный.png</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
@@ -3190,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -3211,8 +3039,9 @@
         <f t="shared" si="0"/>
         <v>4-веза-клапан_противопожарный-кпу-1н_стеновой-прямоугольный.png</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>104</v>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4-веза-клапан_противопожарный-кпу-1н_стеновой-прямоугольный.png</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
@@ -3220,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -3241,8 +3070,9 @@
         <f t="shared" si="0"/>
         <v>5-веза-клапан_противопожарный-кпу-1н_канальный-круглый.png</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>105</v>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5-веза-клапан_противопожарный-кпу-1н_канальный-круглый.png</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:10">
@@ -3250,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -3271,8 +3101,9 @@
         <f t="shared" si="0"/>
         <v>6-веза-клапан_противопожарный-кпу-1н_стеновой-круглый.png</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>106</v>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6-веза-клапан_противопожарный-кпу-1н_стеновой-круглый.png</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
@@ -3280,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -3301,8 +3132,9 @@
         <f t="shared" si="0"/>
         <v>7-веза-клапан_противопожарный-кпу-2н_канальный_дымовой-круглый.png</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7-веза-клапан_противопожарный-кпу-2н_канальный_дымовой-круглый.png</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
@@ -3310,7 +3142,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -3331,8 +3163,9 @@
         <f t="shared" si="0"/>
         <v>8-веза-клапан_противопожарный-кпу-2н_канальный_нормально_открытый-круглый.png</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>110</v>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8-веза-клапан_противопожарный-кпу-2н_канальный_нормально_открытый-круглый.png</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="2:10">
@@ -3340,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -3361,8 +3194,9 @@
         <f t="shared" si="0"/>
         <v>9-веза-клапан_противопожарный-кпу-2н_канальный_нормально_закрытый-круглый.png</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>112</v>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9-веза-клапан_противопожарный-кпу-2н_канальный_нормально_закрытый-круглый.png</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
@@ -3370,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -3391,8 +3225,9 @@
         <f t="shared" si="0"/>
         <v>10-веза-клапан_противопожарный-кпу-2н_ниппельный_дымовой-круглый.png</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>114</v>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10-веза-клапан_противопожарный-кпу-2н_ниппельный_дымовой-круглый.png</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
@@ -3400,7 +3235,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -3421,8 +3256,9 @@
         <f t="shared" si="0"/>
         <v>11-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_открытый-круглый.png</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>116</v>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_открытый-круглый.png</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="2:10">
@@ -3430,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -3451,8 +3287,9 @@
         <f t="shared" si="0"/>
         <v>12-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_закрытый-круглый.png</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>118</v>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>12-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_закрытый-круглый.png</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="2:10">
@@ -3460,7 +3297,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -3481,8 +3318,9 @@
         <f t="shared" si="0"/>
         <v>13-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_открытый-прямоугольный.png</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>120</v>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>13-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_открытый-прямоугольный.png</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" spans="2:10">
@@ -3490,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -3511,8 +3349,9 @@
         <f t="shared" si="0"/>
         <v>14-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_закрытый-прямоугольный.png</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>122</v>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>14-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_закрытый-прямоугольный.png</v>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1" spans="2:10">
@@ -3520,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -3541,8 +3380,9 @@
         <f t="shared" si="0"/>
         <v>15-веза-клапан_противопожарный-кпу-дд_канальный-прямоугольный.png</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>124</v>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>15-веза-клапан_противопожарный-кпу-дд_канальный-прямоугольный.png</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:10">
@@ -3550,7 +3390,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -3571,8 +3411,9 @@
         <f t="shared" si="0"/>
         <v>16-веза-клапан_противопожарный-кпу-дд_стеновой-прямоугольный.png</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>126</v>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>16-веза-клапан_противопожарный-кпу-дд_стеновой-прямоугольный.png</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1" spans="2:10">
@@ -3580,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -3601,8 +3442,9 @@
         <f t="shared" si="0"/>
         <v>17-веза-клапан_противопожарный-кпу-дд_канальный-круглый.png</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>127</v>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>17-веза-клапан_противопожарный-кпу-дд_канальный-круглый.png</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="2:10">
@@ -3610,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -3631,8 +3473,9 @@
         <f t="shared" si="0"/>
         <v>18-веза-клапан_противопожарный-кпу-дд_ниппельный-круглый.png</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>129</v>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>18-веза-клапан_противопожарный-кпу-дд_ниппельный-круглый.png</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="2:10">
@@ -3640,7 +3483,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -3661,8 +3504,9 @@
         <f t="shared" si="0"/>
         <v>19-веза-клапан_противопожарный-оксид_канальный-прямоугольный.png</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>131</v>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>19-веза-клапан_противопожарный-оксид_канальный-прямоугольный.png</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1" spans="2:10">
@@ -3670,7 +3514,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -3691,8 +3535,9 @@
         <f t="shared" si="0"/>
         <v>20-веза-клапан_противопожарный-оксид_стеновой-прямоугольный.png</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>133</v>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>20-веза-клапан_противопожарный-оксид_стеновой-прямоугольный.png</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="2:10">
@@ -3700,7 +3545,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -3721,8 +3566,9 @@
         <f t="shared" si="0"/>
         <v>21-веза-клапан_противопожарный-оксид_канальный_кассетный-прямоугольный.png</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>135</v>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>21-веза-клапан_противопожарный-оксид_канальный_кассетный-прямоугольный.png</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -3730,7 +3576,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -3751,8 +3597,9 @@
         <f t="shared" si="0"/>
         <v>22-веза-клапан_противопожарный-прок-круглый.png</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>137</v>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>22-веза-клапан_противопожарный-прок-круглый.png</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -3760,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -3781,8 +3628,9 @@
         <f t="shared" si="0"/>
         <v>23-веза-клапан_противопожарный-прок-прямоугольный.png</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>138</v>
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>23-веза-клапан_противопожарный-прок-прямоугольный.png</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -3790,7 +3638,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -3811,8 +3659,9 @@
         <f t="shared" si="0"/>
         <v>24-ровен-шумоглушитель-гтк-круглый.png</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>140</v>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>24-ровен-шумоглушитель-гтк-круглый.png</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -3820,7 +3669,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -3841,8 +3690,9 @@
         <f t="shared" si="0"/>
         <v>25-неватом-шумоглушитель-гтк-круглый.png</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>141</v>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>25-неватом-шумоглушитель-гтк-круглый.png</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -3850,7 +3700,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -3871,8 +3721,9 @@
         <f t="shared" si="0"/>
         <v>26-неватом-шумоглушитель-гтп-прямоугольный.png</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>143</v>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>26-неватом-шумоглушитель-гтп-прямоугольный.png</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -3880,7 +3731,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -3901,8 +3752,9 @@
         <f t="shared" si="0"/>
         <v>27-неватом-клапан_воздушный-р-круглый.png</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>145</v>
+      <c r="J31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>27-неватом-клапан_воздушный-р-круглый.png</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -3910,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -3931,8 +3783,9 @@
         <f t="shared" si="0"/>
         <v>28-неватом-клапан_воздушный-р-прямоугольный.png</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>146</v>
+      <c r="J32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>28-неватом-клапан_воздушный-р-прямоугольный.png</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -3940,7 +3793,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -3961,8 +3814,9 @@
         <f t="shared" si="0"/>
         <v>29-неватом-клапан_воздушный-kvk-круглый.png</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>148</v>
+      <c r="J33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>29-неватом-клапан_воздушный-kvk-круглый.png</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -3970,7 +3824,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -3991,8 +3845,9 @@
         <f t="shared" si="0"/>
         <v>30-неватом-клапан_воздушный-kv-прямоугольный.png</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>150</v>
+      <c r="J34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>30-неватом-клапан_воздушный-kv-прямоугольный.png</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -4000,7 +3855,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -4021,8 +3876,9 @@
         <f t="shared" si="0"/>
         <v>31-неватом-клапан_воздушный-kvu-p-прямоугольный.png</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>152</v>
+      <c r="J35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>31-неватом-клапан_воздушный-kvu-p-прямоугольный.png</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -4030,7 +3886,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -4051,8 +3907,9 @@
         <f t="shared" si="0"/>
         <v>32-неватом-клапан_обратный-ko-круглый.png</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>154</v>
+      <c r="J36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>32-неватом-клапан_обратный-ko-круглый.png</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -4060,7 +3917,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -4078,11 +3935,12 @@
         <v>19</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f t="shared" ref="I37:I68" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B37,"-",G37,"-",E37,"-",C37,"-",F37,".png")," ","_"),"""",""),",",""))</f>
+        <f t="shared" ref="I37:I68" si="2">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B37,"-",G37,"-",E37,"-",C37,"-",F37,".png")," ","_"),"""",""),",",""))</f>
         <v>33-неватом-клапан_обратный-ko_типа_бабочка-круглый.png</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>156</v>
+      <c r="J37" s="4" t="str">
+        <f t="shared" ref="J37:J68" si="3">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B37,"-",G37,"-",E37,"-",C37,"-",F37,".png")," ","_"),"""",""),",",""))</f>
+        <v>33-неватом-клапан_обратный-ko_типа_бабочка-круглый.png</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -4090,7 +3948,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -4108,11 +3966,12 @@
         <v>19</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34-неватом-клапан_противопожарный-kpno-прямоугольный.png</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>158</v>
+      <c r="J38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>34-неватом-клапан_противопожарный-kpno-прямоугольный.png</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -4120,7 +3979,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>24</v>
@@ -4138,11 +3997,12 @@
         <v>19</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35-неватом-воздуховод-tdc_iii-прямоугольный.png</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>160</v>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>35-неватом-воздуховод-tdc_iii-прямоугольный.png</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -4150,7 +4010,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>24</v>
@@ -4168,11 +4028,12 @@
         <v>19</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36-неватом-заглушка-tdc_iii-прямоугольный.png</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>161</v>
+      <c r="J40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>36-неватом-заглушка-tdc_iii-прямоугольный.png</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -4180,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>24</v>
@@ -4198,11 +4059,12 @@
         <v>19</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37-неватом-отвод-tdc_iii-прямоугольный.png</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>162</v>
+      <c r="J41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>37-неватом-отвод-tdc_iii-прямоугольный.png</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -4210,7 +4072,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>26</v>
@@ -4228,11 +4090,12 @@
         <v>19</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38-неватом-диффузор-дп4-прямоугольный.png</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>164</v>
+      <c r="J42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>38-неватом-диффузор-дп4-прямоугольный.png</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -4240,7 +4103,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>26</v>
@@ -4258,11 +4121,12 @@
         <v>19</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39-неватом-диффузор-кп_(кв)-круглый.png</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>166</v>
+      <c r="J43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>39-неватом-диффузор-кп_(кв)-круглый.png</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -4270,7 +4134,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>32</v>
@@ -4288,11 +4152,12 @@
         <v>23</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40-ровен-вентилятор-vc-круглый.png</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>168</v>
+      <c r="J44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>40-ровен-вентилятор-vc-круглый.png</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -4300,7 +4165,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>32</v>
@@ -4318,11 +4183,12 @@
         <v>23</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41-ровен-вентилятор-vcn-прямоугольный.png</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>170</v>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>41-ровен-вентилятор-vcn-прямоугольный.png</v>
       </c>
     </row>
     <row r="46" spans="2:10">
@@ -4330,7 +4196,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>32</v>
@@ -4348,11 +4214,12 @@
         <v>19</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42-неватом-нагреватель-nwpk-круглый.png</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>172</v>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>42-неватом-нагреватель-nwpk-круглый.png</v>
       </c>
     </row>
     <row r="47" spans="2:10">
@@ -4360,7 +4227,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>32</v>
@@ -4378,11 +4245,12 @@
         <v>19</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43-неватом-нагреватель-nwp-прямоугольный.png</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>174</v>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>43-неватом-нагреватель-nwp-прямоугольный.png</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -4390,7 +4258,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>32</v>
@@ -4408,11 +4276,12 @@
         <v>19</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44-неватом-нагреватель-nek-круглый.png</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>176</v>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>44-неватом-нагреватель-nek-круглый.png</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -4420,7 +4289,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>32</v>
@@ -4438,11 +4307,12 @@
         <v>19</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45-неватом-нагреватель-nep-прямоугольный.png</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>178</v>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>45-неватом-нагреватель-nep-прямоугольный.png</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -4450,7 +4320,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>32</v>
@@ -4468,11 +4338,12 @@
         <v>19</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46-неватом-охладитель-owp-прямоугольный.png</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>180</v>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>46-неватом-охладитель-owp-прямоугольный.png</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -4480,7 +4351,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>32</v>
@@ -4498,11 +4369,12 @@
         <v>19</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47-неватом-охладитель-ofp-прямоугольный.png</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>182</v>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>47-неватом-охладитель-ofp-прямоугольный.png</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -4510,7 +4382,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>32</v>
@@ -4528,11 +4400,12 @@
         <v>19</v>
       </c>
       <c r="I52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48-неватом-бактерицидная_секция-sub-прямоугольный.png</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>184</v>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>48-неватом-бактерицидная_секция-sub-прямоугольный.png</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -4540,7 +4413,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
@@ -4558,11 +4431,12 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49-нанософт_разработка-выноска-размер_воздуховода-не_применимо.png</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>186</v>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>49-нанософт_разработка-выноска-размер_воздуховода-не_применимо.png</v>
       </c>
     </row>
     <row r="54" spans="2:10">
@@ -4588,11 +4462,12 @@
         <v>23</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50-нанософт_разработка-воздуховод-воздуховод-круглый.png</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>187</v>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>50-нанософт_разработка-воздуховод-воздуховод-круглый.png</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -4618,11 +4493,12 @@
         <v>23</v>
       </c>
       <c r="I55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>188</v>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>51-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -4648,11 +4524,12 @@
         <v>23</v>
       </c>
       <c r="I56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>189</v>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>52-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
     </row>
     <row r="57" spans="2:10">
@@ -4678,11 +4555,12 @@
         <v>23</v>
       </c>
       <c r="I57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>190</v>
+      <c r="J57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>53-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
     </row>
     <row r="58" spans="2:10">
@@ -4708,11 +4586,12 @@
         <v>23</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>191</v>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>54-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
     </row>
     <row r="59" spans="2:10">
@@ -4738,11 +4617,12 @@
         <v>23</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55-нанософт_разработка-заглушка-заглушка-круглый.png</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>192</v>
+      <c r="J59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55-нанософт_разработка-заглушка-заглушка-круглый.png</v>
       </c>
     </row>
     <row r="60" spans="2:10">
@@ -4768,11 +4648,12 @@
         <v>23</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>193</v>
+      <c r="J60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>56-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
     </row>
     <row r="61" spans="2:10">
@@ -4798,11 +4679,12 @@
         <v>23</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57-нанософт_разработка-крестовина-отвод-круглый.png</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>194</v>
+      <c r="J61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>57-нанософт_разработка-крестовина-отвод-круглый.png</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -4828,11 +4710,12 @@
         <v>23</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58-нанософт_разработка-крестовина-переход-круглый.png</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>195</v>
+      <c r="J62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>58-нанософт_разработка-крестовина-переход-круглый.png</v>
       </c>
     </row>
     <row r="63" spans="2:10">
@@ -4858,11 +4741,12 @@
         <v>23</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>196</v>
+      <c r="J63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>59-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
     </row>
     <row r="64" spans="2:10">
@@ -4888,34 +4772,51 @@
         <v>23</v>
       </c>
       <c r="I64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60-нанософт_разработка-трубопровод-трубопровод-круглый.png</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9">
+      <c r="J64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60-нанософт_разработка-трубопровод-трубопровод-круглый.png</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10">
       <c r="I65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>----.png</v>
       </c>
-    </row>
-    <row r="66" spans="9:9">
+      <c r="J65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>----.png</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10">
       <c r="I66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>----.png</v>
       </c>
-    </row>
-    <row r="67" spans="9:9">
+      <c r="J66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>----.png</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10">
       <c r="I67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>----.png</v>
       </c>
-    </row>
-    <row r="68" spans="9:9">
+      <c r="J67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>----.png</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10">
       <c r="I68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>----.png</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>----.png</v>
       </c>
     </row>
